--- a/kittyserver/gametools/parseExcelTool/Excel/OpenFun.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/OpenFun.xlsx
@@ -333,6 +333,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -344,7 +412,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -625,7 +693,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -803,7 +871,7 @@
         <v>10010033</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>10010033</v>

--- a/kittyserver/gametools/parseExcelTool/Excel/OpenFun.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/OpenFun.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\japan\Plan\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>抢拍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +245,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>庄园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>采购</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,7 +261,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ProductionUI_Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OrderSystemUI_Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,8 +288,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,74 +350,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,7 +369,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -447,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,9 +436,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,6 +471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,15 +647,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -707,7 +666,7 @@
     <col min="9" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -721,7 +680,7 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -736,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -765,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -794,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -808,7 +767,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -823,12 +782,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -854,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -868,19 +827,19 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <v>10010033</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10010033</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -906,7 +865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -932,7 +891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -958,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -984,7 +943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1010,7 +969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1018,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>51</v>
@@ -1036,7 +995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1062,7 +1021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1088,7 +1047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1099,19 +1058,45 @@
         <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10010008</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>59</v>
+      <c r="H17" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/kittyserver/gametools/parseExcelTool/Excel/OpenFun.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/OpenFun.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>抢拍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orderBg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconAuction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OrderUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DrawCapsuleUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +242,6 @@
   </si>
   <si>
     <t>OrderSystemUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order_Open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -649,10 +633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,118 +652,118 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -789,7 +773,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -801,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -815,16 +799,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -833,24 +817,24 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -859,24 +843,24 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -885,24 +869,24 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -911,15 +895,15 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -928,7 +912,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -937,24 +921,24 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -963,140 +947,114 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10010037</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4">
-        <v>10010037</v>
+        <v>10010008</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10010008</v>
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
